--- a/biology/Médecine/1344_en_santé_et_médecine/1344_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1344_en_santé_et_médecine/1344_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1344_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1344_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1344 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1344_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1344_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation de l'hôtel-Dieu de Saint-Jacques de Galice à Marseille[1].
-Fondation par sainte Brigitte de l'hôpital des Suédois à Rome[2].
-Fondation de l'hôpital du Saint-Esprit de Neustadt, au nord de Lübeck en Allemagne, établissement qui fait « office d'hôpital, mais dev[iendra] peu à peu un asile de vieillards[3] ».
-Fondation par le prêtre Ambrogio Varese de l'hôpital Saint-Pierre-des-Pèlerins (San Pietro dei Pellegrini) de Milan en Lombardie, établissement « divisé en deux unités distinctes, l'hospice pour les pèlerins et pèlerines valides et l'infirmerie pour les pèlerins malades[4] ».
-Le roi de France Philippe VI de Valois approuve la construction d'un hôpital du Saint-Esprit à Aigues-Mortes en Provence[5].
-Une maladrerie est attestée à Briançon en Dauphiné, sur la route du mont Genèvre[6].
-Pierre le Grand, roi d'Aragon, renouvelle les règles édictées en 1337 pour le gouvernement de l'hôtel de Jacques III de Majorque contre le risque d'empoisonnement[7],[8].
-1344-1346 : fondation et construction, par l'infant Pedro (es) et selon le vœu de sa mère, Blanche d'Anjou, de l'hospice qui a donné son nom à la ville de l'Hospitalet de l'Infant en Catalogne[9].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation de l'hôtel-Dieu de Saint-Jacques de Galice à Marseille.
+Fondation par sainte Brigitte de l'hôpital des Suédois à Rome.
+Fondation de l'hôpital du Saint-Esprit de Neustadt, au nord de Lübeck en Allemagne, établissement qui fait « office d'hôpital, mais dev[iendra] peu à peu un asile de vieillards ».
+Fondation par le prêtre Ambrogio Varese de l'hôpital Saint-Pierre-des-Pèlerins (San Pietro dei Pellegrini) de Milan en Lombardie, établissement « divisé en deux unités distinctes, l'hospice pour les pèlerins et pèlerines valides et l'infirmerie pour les pèlerins malades ».
+Le roi de France Philippe VI de Valois approuve la construction d'un hôpital du Saint-Esprit à Aigues-Mortes en Provence.
+Une maladrerie est attestée à Briançon en Dauphiné, sur la route du mont Genèvre.
+Pierre le Grand, roi d'Aragon, renouvelle les règles édictées en 1337 pour le gouvernement de l'hôtel de Jacques III de Majorque contre le risque d'empoisonnement,.
+1344-1346 : fondation et construction, par l'infant Pedro (es) et selon le vœu de sa mère, Blanche d'Anjou, de l'hospice qui a donné son nom à la ville de l'Hospitalet de l'Infant en Catalogne.</t>
         </is>
       </c>
     </row>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1344_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1344_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,10 +562,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Galvano Fiamma (né en 1283), théologien, philosophe et historiographe italien qui aurait enseigné la physique d'Aristote et la théologie aux étudiants en médecine du couvent de San Tommaso à Pavie.
-1344-1345[10] (?) : Jaghmini (en) (date de naissance inconnue), médecin persan, auteur du Petit Canon de la médecine (Qānūncha), épitomé du Canon d'Avicenne.
+1344-1345 (?) : Jaghmini (en) (date de naissance inconnue), médecin persan, auteur du Petit Canon de la médecine (Qānūncha), épitomé du Canon d'Avicenne.
 </t>
         </is>
       </c>
